--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Coast_Column_Water_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Coast_Column_Water_mass_flows.xlsx
@@ -475,31 +475,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>5.070125416187125E-14</v>
+        <v>1.794957884292373E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.817575191697575E-10</v>
+        <v>6.434694712315917E-13</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.21910746576971E-11</v>
+        <v>4.31596139712192E-14</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.050925798727235E-11</v>
+        <v>3.720554016690005E-14</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.074344051339383E-15</v>
+        <v>1.442425064066983E-17</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>5.614523828462458E-06</v>
+        <v>1.902341373096434E-08</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.03812836876537E-10</v>
+        <v>6.905689668514041E-13</v>
       </c>
       <c r="G7">
-        <v>0.01350007614045951</v>
+        <v>4.574164108406879E-05</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01163767649624987</v>
+        <v>3.943136437198241E-05</v>
       </c>
       <c r="J7">
-        <v>7.189974648224594E-05</v>
+        <v>2.436143591642356E-07</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>5.793978567409207E-12</v>
+        <v>1.776212128760545E-14</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.605399012063622E-05</v>
+        <v>1.411839116737883E-07</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.004823405672407E-09</v>
+        <v>1.840849088433856E-11</v>
       </c>
       <c r="J12">
-        <v>8.038928683347986E-09</v>
+        <v>2.464427933841764E-11</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>8.124660570470912E-15</v>
+        <v>2.197882565141099E-15</v>
       </c>
       <c r="D13">
-        <v>6.021270983180384E-15</v>
+        <v>1.628873772526735E-15</v>
       </c>
       <c r="E13">
-        <v>2.408518022160406E-07</v>
+        <v>6.515521138168181E-08</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.42031971452783E-12</v>
+        <v>2.277864254506563E-12</v>
       </c>
       <c r="J13">
-        <v>2.20472630967881E-11</v>
+        <v>5.964223951167562E-12</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -931,13 +931,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1.058009920331511E-15</v>
+        <v>3.057452297684681E-16</v>
       </c>
       <c r="D14">
-        <v>3.13640890124712E-15</v>
+        <v>9.063639591008744E-16</v>
       </c>
       <c r="E14">
-        <v>2.690106414295138E-06</v>
+        <v>7.773908239750561E-07</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.096511258908762E-12</v>
+        <v>3.168714020126818E-13</v>
       </c>
       <c r="J14">
-        <v>1.665390737629724E-11</v>
+        <v>4.812670126678333E-12</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4.298269585931987E-21</v>
+        <v>1.275745093320558E-35</v>
       </c>
       <c r="D15">
-        <v>1.083067476087071E-19</v>
+        <v>3.214591338978486E-34</v>
       </c>
       <c r="E15">
-        <v>9.96760472136365E-09</v>
+        <v>2.958428400363186E-23</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.454685068853371E-18</v>
+        <v>1.322169888430996E-32</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.815864046479815E-16</v>
+        <v>2.616586762609753E-30</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.708073056567939E-06</v>
+        <v>4.436928844264685E-06</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.087538200892252E-07</v>
+        <v>1.411112918236624E-07</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04024541246456402</v>
+        <v>0.01839356073783827</v>
       </c>
       <c r="J17">
-        <v>0.05389207490943491</v>
+        <v>0.02463056265127432</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1083,16 +1083,16 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>1.932028344042621E-06</v>
+        <v>5.493360424988749E-07</v>
       </c>
       <c r="D18">
-        <v>5.727456414730692E-08</v>
+        <v>1.628494866627871E-08</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.291213846086651E-07</v>
+        <v>6.514637068389206E-08</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.008009342033805463</v>
+        <v>0.002277306266979654</v>
       </c>
       <c r="J18">
-        <v>0.02097310638704786</v>
+        <v>0.005963309646617993</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1121,16 +1121,16 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>2.645017403733163E-07</v>
+        <v>7.643605064409196E-08</v>
       </c>
       <c r="D19">
-        <v>3.136400734958494E-08</v>
+        <v>9.063610888877153E-09</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.690110930210087E-06</v>
+        <v>7.773916912968154E-07</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001096508192397393</v>
+        <v>0.0003168703374407138</v>
       </c>
       <c r="J19">
-        <v>0.01665393225893824</v>
+        <v>0.004812674607625756</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>1.074567438249288E-12</v>
+        <v>3.189362857265561E-27</v>
       </c>
       <c r="D20">
-        <v>1.083067518523943E-12</v>
+        <v>3.214591464932968E-27</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.967604721474036E-09</v>
+        <v>2.958428400395949E-23</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.454685241998093E-09</v>
+        <v>1.322169939821102E-23</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.815864029479141E-07</v>
+        <v>2.616586757563879E-21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1.749113697288578E-13</v>
+        <v>3.345957855737681E-14</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.0002011092009673028</v>
+        <v>4.860455215802391E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>7.615320842169222E-10</v>
+        <v>1.387926862542485E-11</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1.214614995291494E-12</v>
+        <v>1.52679144208826E-12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1.335493085956149E-13</v>
+        <v>1.785125767952804E-13</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5.783682621398297E-22</v>
+        <v>1.716622137830005E-36</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.01061696693665136</v>
+        <v>0.0135678695167558</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.001190978650913551</v>
+        <v>0.001515150177511291</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>0.0001335429485336702</v>
+        <v>0.0001785037723130402</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>5.783682846583132E-13</v>
+        <v>1.716622204665843E-27</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.02448945251275902</v>
+        <v>3.674634116665635E-05</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4.575669996740476E-05</v>
+        <v>9.609770644213841E-11</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1.175450102765739E-08</v>
+        <v>1.420554360296129E-11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1.002428510391515E-11</v>
+        <v>3.198658393985607E-12</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.04193806028180519</v>
+        <v>0.0175204350142379</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.01749147933571768</v>
+        <v>0.003846332529388074</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.009603269867692887</v>
+        <v>0.002639304320130874</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>5.248791666743661E-13</v>
+        <v>3.832048609676356E-32</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.0004996923218625215</v>
+        <v>3.648163975323471E-23</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>1.675972376040287E-11</v>
+        <v>2.061359206047153E-29</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>1.98702676907075E-13</v>
+        <v>2.383607060060894E-30</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>1.40199693431638E-14</v>
+        <v>2.589049278097644E-31</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>8.860427281547415E-16</v>
+        <v>2.629813324448865E-30</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>0.002009783799765405</v>
+        <v>2.060897853042382E-20</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>0.0001742967963859691</v>
+        <v>2.383379746319185E-21</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>1.401991660317712E-05</v>
+        <v>2.589037495295418E-22</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>8.860426674566949E-07</v>
+        <v>2.629813144294536E-21</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.501289348656699E-05</v>
+        <v>8.474995136565549E-08</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.795388737645824E-09</v>
+        <v>5.668165732666766E-12</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>4.983422562682514E-12</v>
+        <v>1.353824524739553E-12</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>3.066843702224718E-12</v>
+        <v>8.862609077492111E-13</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.02603649009485581</v>
+        <v>0.01189449325650512</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.01012765552810641</v>
+        <v>0.002879694287043307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.007999903588552921</v>
+        <v>0.002311822353151412</v>
       </c>
     </row>
     <row r="80" spans="1:6">
